--- a/OPM经济数值/活动_3_调皮的索尼克.xlsx
+++ b/OPM经济数值/活动_3_调皮的索尼克.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E24305-8F6D-4CE8-B6FB-EE63CB461A4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="640" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机2星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,99 +118,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机3星饰品</t>
+    <t>价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机4星饰品</t>
+    <t>价值比例</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'li</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现金</t>
+    <t>金币</t>
+    <rPh sb="0" eb="1">
+      <t>jin'bi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
+    <t>金币价值</t>
+    <rPh sb="0" eb="1">
+      <t>jin'bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余价值</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落积分</t>
+    <rPh sb="0" eb="1">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音速索尼克的碎片</t>
+    <rPh sb="0" eb="1">
+      <t>yin'su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>suo'ni</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sui'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop,546</t>
+  </si>
+  <si>
+    <t>引用</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yong</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价值</t>
+    <rPh sb="0" eb="1">
+      <t>jia'zhi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权重1</t>
+    <t>碎片必掉</t>
+    <rPh sb="0" eb="1">
+      <t>sui'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'diao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概率1</t>
+    <t>碎片概率</t>
+    <rPh sb="0" eb="1">
+      <t>sui'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'lv</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权重2</t>
+    <t>碎片价值</t>
+    <rPh sb="0" eb="1">
+      <t>sui'pian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'zhi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概率2</t>
+    <t>饰品概率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'lv</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权重3</t>
+    <t>随机饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi'pin</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>概率3</t>
+    <t>pack,303</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
+    <t>Pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能碎片</t>
+    <t>pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机奖励份数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pack,302|100;pack,303|51;cash,10|100;cash,30|48</t>
-  </si>
-  <si>
-    <t>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</t>
-  </si>
-  <si>
-    <t>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -273,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,7 +362,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -326,13 +400,8 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
         </row>
         <row r="2">
-          <cell r="A2"/>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -350,7 +419,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -368,7 +436,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4"/>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -383,7 +450,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -398,7 +464,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -413,7 +478,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -428,7 +492,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -443,11 +506,9 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
-          <cell r="C9"/>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -459,36 +520,22 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
-          <cell r="C10"/>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
           <cell r="E10">
             <v>2</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="A11"/>
-          <cell r="B11"/>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
         </row>
         <row r="13">
-          <cell r="A13"/>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -506,7 +553,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -524,7 +570,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15"/>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -542,7 +587,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -560,7 +604,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -578,7 +621,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18"/>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -590,7 +632,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -602,7 +643,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -612,13 +652,6 @@
           <cell r="E20">
             <v>200</v>
           </cell>
-        </row>
-        <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="C21"/>
-          <cell r="D21"/>
-          <cell r="E21"/>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -627,8 +660,6 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
-          <cell r="C22"/>
-          <cell r="D22"/>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -637,12 +668,9 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -651,12 +679,9 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24"/>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
-          <cell r="C24"/>
-          <cell r="D24"/>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -665,12 +690,9 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25"/>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
-          <cell r="C25"/>
-          <cell r="D25"/>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -679,12 +701,9 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
-          <cell r="C26"/>
-          <cell r="D26"/>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -693,12 +712,9 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
-          <cell r="C27"/>
-          <cell r="D27"/>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -707,11 +723,9 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
-          <cell r="C28"/>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -721,29 +735,11 @@
           <cell r="G28">
             <v>100</v>
           </cell>
-        </row>
-        <row r="29">
-          <cell r="A29"/>
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
-        </row>
-        <row r="30">
-          <cell r="A30"/>
-          <cell r="B30"/>
-          <cell r="C30"/>
-          <cell r="D30"/>
-          <cell r="E30"/>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
-          <cell r="B31"/>
-          <cell r="C31"/>
-          <cell r="D31"/>
-          <cell r="E31"/>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -895,7 +891,6 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
-          <cell r="E39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2610,7 +2605,6 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
-          <cell r="E134"/>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2625,51 +2619,38 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
-          <cell r="E135"/>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
-          <cell r="B136"/>
-          <cell r="C136"/>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
-          <cell r="E136"/>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
-          <cell r="B137"/>
-          <cell r="C137"/>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
-          <cell r="E137"/>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
-          <cell r="B138"/>
-          <cell r="C138"/>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
-          <cell r="E138"/>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
-          <cell r="B139"/>
-          <cell r="C139"/>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
-          <cell r="E139"/>
         </row>
         <row r="140">
           <cell r="A140">
@@ -2678,11 +2659,9 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
-          <cell r="C140"/>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
-          <cell r="E140"/>
         </row>
         <row r="141">
           <cell r="A141">
@@ -2697,7 +2676,6 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
-          <cell r="E141"/>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2712,7 +2690,6 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
-          <cell r="E142"/>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2727,7 +2704,6 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
-          <cell r="E143"/>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2742,7 +2718,6 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
-          <cell r="E144"/>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2757,7 +2732,6 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
-          <cell r="E145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2772,7 +2746,6 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
-          <cell r="E146"/>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2787,7 +2760,6 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
-          <cell r="E147"/>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2802,7 +2774,6 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
-          <cell r="E148"/>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2817,7 +2788,6 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
-          <cell r="E149"/>
         </row>
         <row r="150">
           <cell r="A150">
@@ -2832,7 +2802,6 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
-          <cell r="E150"/>
         </row>
         <row r="151">
           <cell r="A151">
@@ -2847,7 +2816,6 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
-          <cell r="E151"/>
         </row>
         <row r="152">
           <cell r="A152">
@@ -2862,7 +2830,6 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
-          <cell r="E152"/>
         </row>
         <row r="153">
           <cell r="A153">
@@ -2877,7 +2844,6 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
-          <cell r="E153"/>
         </row>
         <row r="154">
           <cell r="A154">
@@ -2892,7 +2858,6 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
-          <cell r="E154"/>
         </row>
         <row r="155">
           <cell r="A155">
@@ -2907,7 +2872,6 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
-          <cell r="E155"/>
         </row>
         <row r="156">
           <cell r="A156">
@@ -2922,7 +2886,6 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
-          <cell r="E156"/>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3196,7 +3159,6 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
-          <cell r="C171"/>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3479,21 +3441,10 @@
             <v>200</v>
           </cell>
         </row>
-        <row r="188">
-          <cell r="A188"/>
-          <cell r="B188"/>
-          <cell r="C188"/>
-          <cell r="D188"/>
-          <cell r="E188"/>
-        </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
           </cell>
-          <cell r="B189"/>
-          <cell r="C189"/>
-          <cell r="D189"/>
-          <cell r="E189"/>
         </row>
         <row r="190">
           <cell r="A190">
@@ -4846,24 +4797,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +4834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4898,13 +4849,13 @@
       </c>
       <c r="E4" s="4">
         <f>A20*10000</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4919,13 +4870,13 @@
       </c>
       <c r="E5" s="4">
         <f>E4</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4940,94 +4891,95 @@
       </c>
       <c r="E6" s="4">
         <f>E5</f>
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f>A12/12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f>A16*A14</f>
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f>A18*A20</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <f>A26*A22</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <f>A24/A22</f>
-        <v>250</v>
+        <f>40/A20</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5038,683 +4990,1195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695D218-490E-4B85-B873-DE3C26C99617}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="13" width="8.83203125" style="6"/>
+    <col min="14" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>128</v>
+      </c>
+      <c r="B2" s="9">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>D11&amp;";"&amp;H11&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5</f>
-        <v>coin,2000;pack,302;pack,125;pack,125;pack,125</v>
-      </c>
-      <c r="D2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2">
+        <f>"coin,"&amp;F2&amp;";"&amp;$B$20&amp;","&amp;J2&amp;IF(K2&gt;0,";pack,"&amp;O2,"")&amp;IF(N2&gt;0,";pack,"&amp;Q2,"")</f>
+        <v>coin,400;prop,546,1</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D14" si="0">$D$16*E2/$E$16</f>
+        <v>40</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2*10</f>
+        <v>400</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4">
+        <f>D2-G2</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2*10</f>
+        <v>200</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>(J2+K2)*$C$20</f>
+        <v>20</v>
+      </c>
+      <c r="M2" s="4">
+        <f>H2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <f>M2/$C$21</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>143</v>
+      </c>
+      <c r="P2" s="6" t="str">
+        <f>$B$20&amp;"|"&amp;K2*10000&amp;";0|"&amp;(10000-K2*10000)</f>
+        <v>prop,546|0;0|10000</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>158</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>$B$21&amp;"|"&amp;N2*10000&amp;";0|"&amp;(10000-N2*10000)</f>
+        <v>pack,303|0;0|10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>129</v>
+      </c>
+      <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C4" si="0">D12&amp;";"&amp;H12&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6</f>
-        <v>coin,2000;pack,303;pack,126;pack,126;pack,126</v>
-      </c>
-      <c r="D3" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2">
+        <f t="shared" ref="C3:C16" si="1">"coin,"&amp;F3&amp;";"&amp;$B$20&amp;","&amp;J3&amp;IF(K3&gt;0,";pack,"&amp;O3,"")&amp;IF(N3&gt;0,";pack,"&amp;Q3,"")</f>
+        <v>coin,460;prop,546,1;pack,159</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F16" si="2">D3*10</f>
+        <v>460</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H16" si="3">D3-G3</f>
+        <v>26</v>
+      </c>
+      <c r="I3" s="4">
+        <f>H3*10</f>
+        <v>260</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L16" si="4">(J3+K3)*$C$20</f>
+        <v>20</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M16" si="5">H3-L3</f>
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N16" si="6">M3/$C$21</f>
+        <v>0.12</v>
+      </c>
+      <c r="O3" s="1">
+        <v>144</v>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f t="shared" ref="P3:P16" si="7">$B$20&amp;"|"&amp;K3*10000&amp;";0|"&amp;(10000-K3*10000)</f>
+        <v>prop,546|0;0|10000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>159</v>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" ref="R3:R16" si="8">$B$21&amp;"|"&amp;N3*10000&amp;";0|"&amp;(10000-N3*10000)</f>
+        <v>pack,303|1200;0|8800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>130</v>
+      </c>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,520;prop,546,1;pack,145;pack,160</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>coin,2000;pack,303;pack,127;pack,127;pack,127</v>
-      </c>
-      <c r="D4" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I16" si="9">H4*10</f>
+        <v>320</v>
+      </c>
+      <c r="J4" s="4">
         <v>1</v>
       </c>
+      <c r="K4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+      <c r="O4" s="1">
+        <v>145</v>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|2000;0|8000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>160</v>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|1600;0|8400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>131</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
       <c r="C5" s="2" t="str">
-        <f>L11</f>
-        <v>pack,302|100;pack,303|51;cash,10|100;cash,30|48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>126</v>
-      </c>
-      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>coin,570;prop,546,1;pack,146;pack,161</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>56.999999999999993</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>569.99999999999989</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="3"/>
+        <v>36.999999999999993</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="9"/>
+        <v>369.99999999999994</v>
+      </c>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
+      <c r="K5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="5"/>
+        <v>10.999999999999993</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21999999999999986</v>
+      </c>
+      <c r="O5" s="1">
+        <v>146</v>
+      </c>
+      <c r="P5" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|3000;0|7000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>161</v>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|2200;0|7800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>132</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C7" si="1">L12</f>
-        <v>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>127</v>
-      </c>
-      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>coin,620;prop,546,1;pack,147;pack,162</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="9"/>
+        <v>420</v>
+      </c>
+      <c r="J6" s="4">
         <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O6" s="1">
+        <v>147</v>
+      </c>
+      <c r="P6" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|4000;0|6000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>162</v>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|2800;0|7200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>133</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+        <v>coin,670;prop,546,1;pack,148;pack,163</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>670</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="9"/>
+        <v>470</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.34</v>
+      </c>
+      <c r="O7" s="1">
+        <v>148</v>
+      </c>
+      <c r="P7" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|5000;0|5000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>163</v>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|3400;0|6600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>134</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,720;prop,546,1;pack,149;pack,164</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="9"/>
+        <v>520</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>149</v>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|6000;0|4000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>164</v>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4000;0|6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>135</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,770;prop,546,1;pack,150;pack,165</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="9"/>
+        <v>570</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+      <c r="O9" s="1">
+        <v>150</v>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|7500;0|2500</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>165</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4400;0|5600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>136</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,820;prop,546,2;pack,166</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="9"/>
+        <v>620</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+      <c r="O10" s="1">
+        <v>151</v>
+      </c>
+      <c r="P10" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|0;0|10000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>166</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4400;0|5600</v>
+      </c>
+      <c r="W10" s="1">
+        <f>352+1280</f>
+        <v>1632</v>
+      </c>
+      <c r="X10" s="1">
+        <f>319+1232</f>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>137</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,860;prop,546,2;pack,152;pack,167</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="9"/>
+        <v>660</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+      <c r="O11" s="1">
+        <v>152</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|2000;0|8000</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>167</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4400;0|5600</v>
+      </c>
+      <c r="W11" s="1">
+        <f>1066+4399</f>
+        <v>5465</v>
+      </c>
+      <c r="X11" s="1">
+        <f>1009+4697</f>
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>138</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,900;prop,546,2;pack,153;pack,168</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="6"/>
+        <v>0.44</v>
+      </c>
+      <c r="O12" s="1">
+        <v>153</v>
+      </c>
+      <c r="P12" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|4000;0|6000</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>168</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4400;0|5600</v>
+      </c>
+      <c r="W12" s="1">
+        <f>W10/W11</f>
+        <v>0.29862763037511436</v>
+      </c>
+      <c r="X12" s="1">
+        <f>X10/X11</f>
+        <v>0.27181913774973709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>139</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,930;prop,546,2;pack,154;pack,169</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="9"/>
+        <v>730</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="N13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.46</v>
+      </c>
+      <c r="O13" s="1">
+        <v>154</v>
+      </c>
+      <c r="P13" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|5000;0|5000</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>169</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4600;0|5400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>140</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,960;prop,546,2;pack,155;pack,170</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="G14" s="4">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="9"/>
+        <v>760</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="N14" s="4">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="O14" s="1">
+        <v>155</v>
+      </c>
+      <c r="P14" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|6000;0|4000</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>170</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4800;0|5200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>141</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,980;prop,546,2;pack,156;pack,171</v>
+      </c>
+      <c r="D15" s="4">
+        <f>$D$16*E15/$E$16</f>
+        <v>98</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="N15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="O15" s="1">
+        <v>156</v>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|7000;0|3000</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>171</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4800;0|5200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>142</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>coin,1000;prop,546,2;pack,157;pack,172</v>
+      </c>
+      <c r="D16" s="4">
+        <f>活动地图!A26</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>20</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="J16" s="4">
+        <v>2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="O16" s="1">
+        <v>157</v>
+      </c>
+      <c r="P16" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,546|8000;0|2000</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>172</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,303|4800;0|5200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="6">
-        <f>VLOOKUP(A11,价值表!$B:$G,6,0)*B11</f>
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(A11,价值表!$B:$G,3,0)&amp;","&amp;B11</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f>VLOOKUP(E11,价值表!$B:$G,6,0)*F11</f>
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>VLOOKUP(E11,价值表!$B:$G,3,0)</f>
-        <v>pack,302</v>
-      </c>
-      <c r="I11" s="1">
-        <f>D2-C11-G11</f>
-        <v>65</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11/J11</f>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f>K25</f>
-        <v>pack,302|100;pack,303|51;cash,10|100;cash,30|48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="6">
-        <f>VLOOKUP(A12,价值表!$B:$G,6,0)*B12</f>
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(A12,价值表!$B:$G,3,0)&amp;","&amp;B12</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <f>VLOOKUP(E12,价值表!$B:$G,6,0)*F12</f>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6">
         <v>50</v>
       </c>
-      <c r="H12" s="1" t="str">
-        <f>VLOOKUP(E12,价值表!$B:$G,3,0)</f>
-        <v>pack,303</v>
-      </c>
-      <c r="I12" s="1">
-        <f>D3-C12-G12</f>
-        <v>90</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12:K13" si="2">I12/J12</f>
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>L25</f>
-        <v>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="6">
-        <f>VLOOKUP(A13,价值表!$B:$G,6,0)*B13</f>
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>VLOOKUP(A13,价值表!$B:$G,3,0)&amp;","&amp;B13</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <f>VLOOKUP(E13,价值表!$B:$G,6,0)*F13</f>
-        <v>50</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>VLOOKUP(E13,价值表!$B:$G,3,0)</f>
-        <v>pack,303</v>
-      </c>
-      <c r="I13" s="1">
-        <f>D4-C13-G13</f>
-        <v>160</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>M25</f>
-        <v>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <f>SUM(D18:D24)</f>
-        <v>299</v>
-      </c>
-      <c r="E16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,E18:E24)</f>
-        <v>21.705685618729095</v>
-      </c>
-      <c r="F16" s="1">
-        <f>SUM(F18:F24)</f>
-        <v>450</v>
-      </c>
-      <c r="G16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,G18:G24)</f>
-        <v>28.888888888888886</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SUM(H18:H24)</f>
-        <v>600</v>
-      </c>
-      <c r="I16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,I18:I24)</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <f>VLOOKUP(A18,价值表!$B:$G,6,0)*B18</f>
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="8">
-        <f>D18/$D$16</f>
-        <v>0.33444816053511706</v>
-      </c>
-      <c r="F18" s="1">
-        <v>100</v>
-      </c>
-      <c r="G18" s="8">
-        <f>F18/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H18" s="1">
-        <v>100</v>
-      </c>
-      <c r="I18" s="8">
-        <f>H18/$H$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f>VLOOKUP(A18,价值表!$B:$G,3,0)</f>
-        <v>pack,302</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>IF(D18&lt;&gt;"",$J18&amp;"|"&amp;D18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f>IF(F18&lt;&gt;"",$J18&amp;"|"&amp;F18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f>IF(H18&lt;&gt;"",$J18&amp;"|"&amp;H18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <f>VLOOKUP(A19,价值表!$B:$G,6,0)*B19</f>
-        <v>50</v>
-      </c>
-      <c r="D19" s="1">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8">
-        <f>D19/$D$16</f>
-        <v>0.1705685618729097</v>
-      </c>
-      <c r="F19" s="1">
-        <v>100</v>
-      </c>
-      <c r="G19" s="8">
-        <f>F19/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="8">
-        <f>H19/$H$16</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>VLOOKUP(A19,价值表!$B:$G,3,0)</f>
-        <v>pack,303</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" ref="K19:K24" si="3">IF(D19&lt;&gt;"",$J19&amp;"|"&amp;D19,"")</f>
-        <v>pack,303|51</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" ref="L19:L24" si="4">IF(F19&lt;&gt;"",$J19&amp;"|"&amp;F19,"")</f>
-        <v>pack,303|100</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" ref="M19:M24" si="5">IF(H19&lt;&gt;"",$J19&amp;"|"&amp;H19,"")</f>
-        <v>pack,303|200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <f>VLOOKUP(A20,价值表!$B:$G,6,0)*B20</f>
-        <v>600</v>
-      </c>
-      <c r="E20" s="8">
-        <f>D20/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f>F20/$F$16</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>20</v>
-      </c>
-      <c r="I20" s="8">
-        <f>H20/$H$16</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f>VLOOKUP(A20,价值表!$B:$G,3,0)</f>
-        <v>pack,304</v>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M20" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>pack,304|20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <f>VLOOKUP(A21,价值表!$B:$G,6,0)*B21</f>
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" s="8">
-        <f>D21/$D$16</f>
-        <v>0.33444816053511706</v>
-      </c>
-      <c r="F21" s="1">
-        <v>100</v>
-      </c>
-      <c r="G21" s="8">
-        <f>F21/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H21" s="1">
-        <v>110</v>
-      </c>
-      <c r="I21" s="8">
-        <f>H21/$H$16</f>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f>VLOOKUP(A21,价值表!$B:$G,3,0)&amp;","&amp;B21</f>
-        <v>cash,10</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>cash,10|100</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,10|100</v>
-      </c>
-      <c r="M21" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,10|110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
-        <f>VLOOKUP(A22,价值表!$B:$G,6,0)*B22</f>
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>48</v>
-      </c>
-      <c r="E22" s="8">
-        <f>D22/$D$16</f>
-        <v>0.16053511705685619</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100</v>
-      </c>
-      <c r="G22" s="8">
-        <f>F22/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-      <c r="I22" s="8">
-        <f>H22/$H$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f>VLOOKUP(A22,价值表!$B:$G,3,0)&amp;","&amp;B22</f>
-        <v>cash,30</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>cash,30|48</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,30|100</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,30|100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1">
-        <f>VLOOKUP(A23,价值表!$B:$G,6,0)*B23</f>
-        <v>50</v>
-      </c>
-      <c r="E23" s="8">
-        <f>D23/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>50</v>
-      </c>
-      <c r="G23" s="8">
-        <f>F23/$F$16</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H23" s="1">
-        <v>50</v>
-      </c>
-      <c r="I23" s="8">
-        <f>H23/$H$16</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f>VLOOKUP(A23,价值表!$B:$G,3,0)&amp;","&amp;B23</f>
-        <v>cash,50</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,50|50</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,50|50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <f>VLOOKUP(A24,价值表!$B:$G,6,0)*B24</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="8">
-        <f>D24/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f>F24/$F$16</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>20</v>
-      </c>
-      <c r="I24" s="8">
-        <f>H24/$H$16</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f>VLOOKUP(A24,价值表!$B:$G,3,0)&amp;","&amp;B24</f>
-        <v>prop,403,1</v>
-      </c>
-      <c r="K24" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M24" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5724,14 +6188,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0A886-1BE1-4842-BC52-DC1B2283B594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="str">

--- a/OPM经济数值/活动_3_调皮的索尼克.xlsx
+++ b/OPM经济数值/活动_3_调皮的索尼克.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="640" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-36620" yWindow="1080" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pack,303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,13 +270,104 @@
     <t>pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>天</t>
+    <rPh sb="0" eb="1">
+      <t>tian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="1">
+      <t>ti'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀/索尼克</t>
+    <rPh sb="0" eb="1">
+      <t>ji'sha</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>suo'ni'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关关卡</t>
+    <rPh sb="0" eb="1">
+      <t>tong'guan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得碎片</t>
+    <rPh sb="0" eb="1">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sui'pian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成需求/次</t>
+    <rPh sb="0" eb="1">
+      <t>he'cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能需求/次</t>
+    <rPh sb="0" eb="1">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack,203;pack,233;pack,243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack,173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,4031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,4037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,4039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -342,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -367,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4527,9 +4617,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4800,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4993,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5057,11 +5147,11 @@
         <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
@@ -5127,7 +5217,7 @@
       </c>
       <c r="R2" s="1" t="str">
         <f>$B$21&amp;"|"&amp;N2*10000&amp;";0|"&amp;(10000-N2*10000)</f>
-        <v>pack,303|0;0|10000</v>
+        <v>pack,173|0;0|10000</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
@@ -5193,7 +5283,7 @@
       </c>
       <c r="R3" s="1" t="str">
         <f t="shared" ref="R3:R16" si="8">$B$21&amp;"|"&amp;N3*10000&amp;";0|"&amp;(10000-N3*10000)</f>
-        <v>pack,303|1200;0|8800</v>
+        <v>pack,173|1200;0|8800</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
@@ -5259,7 +5349,7 @@
       </c>
       <c r="R4" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|1600;0|8400</v>
+        <v>pack,173|1600;0|8400</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.15">
@@ -5325,7 +5415,7 @@
       </c>
       <c r="R5" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|2200;0|7800</v>
+        <v>pack,173|2200;0|7800</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.15">
@@ -5391,7 +5481,7 @@
       </c>
       <c r="R6" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|2800;0|7200</v>
+        <v>pack,173|2800;0|7200</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
@@ -5457,7 +5547,7 @@
       </c>
       <c r="R7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|3400;0|6600</v>
+        <v>pack,173|3400;0|6600</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.15">
@@ -5523,7 +5613,7 @@
       </c>
       <c r="R8" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4000;0|6000</v>
+        <v>pack,173|4000;0|6000</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
@@ -5589,7 +5679,7 @@
       </c>
       <c r="R9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4400;0|5600</v>
+        <v>pack,173|4400;0|5600</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
@@ -5655,7 +5745,7 @@
       </c>
       <c r="R10" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4400;0|5600</v>
+        <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W10" s="1">
         <f>352+1280</f>
@@ -5729,7 +5819,7 @@
       </c>
       <c r="R11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4400;0|5600</v>
+        <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W11" s="1">
         <f>1066+4399</f>
@@ -5803,7 +5893,7 @@
       </c>
       <c r="R12" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4400;0|5600</v>
+        <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W12" s="1">
         <f>W10/W11</f>
@@ -5877,7 +5967,7 @@
       </c>
       <c r="R13" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4600;0|5400</v>
+        <v>pack,173|4600;0|5400</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
@@ -5943,7 +6033,7 @@
       </c>
       <c r="R14" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4800;0|5200</v>
+        <v>pack,173|4800;0|5200</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
@@ -6009,7 +6099,7 @@
       </c>
       <c r="R15" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4800;0|5200</v>
+        <v>pack,173|4800;0|5200</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
@@ -6075,18 +6165,46 @@
       </c>
       <c r="R16" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>pack,303|4800;0|5200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>pack,173|4800;0|5200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q17" s="1">
+        <v>173</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="I18" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -6096,39 +6214,102 @@
       <c r="C20" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="4">
+        <f>J16+K16</f>
+        <v>2.8</v>
+      </c>
+      <c r="G20" s="4">
+        <f>F20*活动地图!$A$20</f>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="R20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="4">
+        <f>CEILING(50/F20,1)</f>
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <f>CEILING(50/G20,1)</f>
+        <v>45</v>
+      </c>
+      <c r="H21" s="4">
+        <f>G21*12</f>
+        <v>540</v>
+      </c>
+      <c r="I21" s="4">
+        <f>H21/$I$18</f>
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D22" s="1">
+        <f>25*10</f>
+        <v>250</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="4">
+        <f>CEILING($D$22/F20,1)</f>
+        <v>90</v>
+      </c>
+      <c r="G22" s="4">
+        <f>CEILING($D$22/G20,1)</f>
+        <v>224</v>
+      </c>
+      <c r="H22" s="4">
+        <f>G22*12</f>
+        <v>2688</v>
+      </c>
+      <c r="I22" s="11">
+        <f>H22/$I$18</f>
+        <v>14.933333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="G32" s="6"/>

--- a/OPM经济数值/活动_3_调皮的索尼克.xlsx
+++ b/OPM经济数值/活动_3_调皮的索尼克.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36620" yWindow="1080" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -455,7 +455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,8 +490,23 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="D1">
+            <v>0</v>
+          </cell>
+          <cell r="E1">
+            <v>0</v>
+          </cell>
         </row>
         <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -509,6 +524,9 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3">
+            <v>0</v>
+          </cell>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -526,6 +544,9 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4">
+            <v>0</v>
+          </cell>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -540,6 +561,9 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5">
+            <v>0</v>
+          </cell>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -554,6 +578,9 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="A6">
+            <v>0</v>
+          </cell>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -568,6 +595,9 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -582,6 +612,9 @@
           </cell>
         </row>
         <row r="8">
+          <cell r="A8">
+            <v>0</v>
+          </cell>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -596,9 +629,15 @@
           </cell>
         </row>
         <row r="9">
+          <cell r="A9">
+            <v>0</v>
+          </cell>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -610,22 +649,60 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="A10">
+            <v>0</v>
+          </cell>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
           <cell r="E10">
             <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
+          <cell r="A13">
+            <v>0</v>
+          </cell>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -643,6 +720,9 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14">
+            <v>0</v>
+          </cell>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -660,6 +740,9 @@
           </cell>
         </row>
         <row r="15">
+          <cell r="A15">
+            <v>0</v>
+          </cell>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -677,6 +760,9 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -694,6 +780,9 @@
           </cell>
         </row>
         <row r="17">
+          <cell r="A17">
+            <v>0</v>
+          </cell>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -711,6 +800,9 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="A18">
+            <v>0</v>
+          </cell>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -722,6 +814,9 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19">
+            <v>0</v>
+          </cell>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -733,6 +828,9 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="A20">
+            <v>0</v>
+          </cell>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -741,6 +839,23 @@
           </cell>
           <cell r="E20">
             <v>200</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>0</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
@@ -750,6 +865,12 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -758,9 +879,18 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23">
+            <v>0</v>
+          </cell>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -769,9 +899,18 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="A24">
+            <v>0</v>
+          </cell>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -780,9 +919,18 @@
           </cell>
         </row>
         <row r="25">
+          <cell r="A25">
+            <v>0</v>
+          </cell>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -791,9 +939,18 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26">
+            <v>0</v>
+          </cell>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -802,9 +959,18 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="A27">
+            <v>0</v>
+          </cell>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -813,9 +979,15 @@
           </cell>
         </row>
         <row r="28">
+          <cell r="A28">
+            <v>0</v>
+          </cell>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -824,12 +996,58 @@
           </cell>
           <cell r="G28">
             <v>100</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>0</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>0</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -981,6 +1199,9 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2695,6 +2916,9 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2709,37 +2933,76 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+          <cell r="C136">
+            <v>0</v>
+          </cell>
           <cell r="D136" t="str">
             <v>prop,612</v>
+          </cell>
+          <cell r="E136">
+            <v>0</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+          <cell r="C137">
+            <v>0</v>
+          </cell>
           <cell r="D137" t="str">
             <v>prop,613</v>
+          </cell>
+          <cell r="E137">
+            <v>0</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+          <cell r="C138">
+            <v>0</v>
+          </cell>
           <cell r="D138" t="str">
             <v>prop,614</v>
+          </cell>
+          <cell r="E138">
+            <v>0</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
+          <cell r="B139">
+            <v>0</v>
+          </cell>
+          <cell r="C139">
+            <v>0</v>
+          </cell>
           <cell r="D139" t="str">
             <v>prop,615</v>
+          </cell>
+          <cell r="E139">
+            <v>0</v>
           </cell>
         </row>
         <row r="140">
@@ -2749,8 +3012,14 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
+          <cell r="C140">
+            <v>0</v>
+          </cell>
           <cell r="D140" t="str">
             <v>prop,616</v>
+          </cell>
+          <cell r="E140">
+            <v>0</v>
           </cell>
         </row>
         <row r="141">
@@ -2766,6 +3035,9 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2780,6 +3052,9 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2794,6 +3069,9 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2808,6 +3086,9 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2822,6 +3103,9 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2836,6 +3120,9 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2850,6 +3137,9 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2864,6 +3154,9 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2878,6 +3171,9 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -2892,6 +3188,9 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -2906,6 +3205,9 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -2920,6 +3222,9 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -2934,6 +3239,9 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -2948,6 +3256,9 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -2962,6 +3273,9 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -2976,6 +3290,9 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3249,6 +3566,9 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
+          <cell r="C171">
+            <v>0</v>
+          </cell>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3531,9 +3851,38 @@
             <v>200</v>
           </cell>
         </row>
+        <row r="188">
+          <cell r="A188">
+            <v>0</v>
+          </cell>
+          <cell r="B188">
+            <v>0</v>
+          </cell>
+          <cell r="C188">
+            <v>0</v>
+          </cell>
+          <cell r="D188">
+            <v>0</v>
+          </cell>
+          <cell r="E188">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
+          </cell>
+          <cell r="B189">
+            <v>0</v>
+          </cell>
+          <cell r="C189">
+            <v>0</v>
+          </cell>
+          <cell r="D189">
+            <v>0</v>
+          </cell>
+          <cell r="E189">
+            <v>0</v>
           </cell>
         </row>
         <row r="190">
@@ -5084,7 +5433,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6218,12 +6567,11 @@
         <v>42</v>
       </c>
       <c r="F20" s="4">
-        <f>J16+K16</f>
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="G20" s="4">
         <f>F20*活动地图!$A$20</f>
-        <v>1.1199999999999999</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -6246,19 +6594,19 @@
       </c>
       <c r="F21" s="4">
         <f>CEILING(50/F20,1)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G21" s="4">
         <f>CEILING(50/G20,1)</f>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="H21" s="4">
         <f>G21*12</f>
-        <v>540</v>
+        <v>864</v>
       </c>
       <c r="I21" s="4">
         <f>H21/$I$18</f>
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>49</v>
@@ -6274,19 +6622,19 @@
       </c>
       <c r="F22" s="4">
         <f>CEILING($D$22/F20,1)</f>
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="G22" s="4">
         <f>CEILING($D$22/G20,1)</f>
-        <v>224</v>
+        <v>358</v>
       </c>
       <c r="H22" s="4">
         <f>G22*12</f>
-        <v>2688</v>
+        <v>4296</v>
       </c>
       <c r="I22" s="11">
         <f>H22/$I$18</f>
-        <v>14.933333333333334</v>
+        <v>23.866666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">

--- a/OPM经济数值/活动_3_调皮的索尼克.xlsx
+++ b/OPM经济数值/活动_3_调皮的索尼克.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="-37460" yWindow="500" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,10 @@
     <t>item,4039</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>coin,1;prop,546,1;item,4031;item,4037;item,4039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +373,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +412,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,8 +446,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -459,8 +481,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5433,7 +5457,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5511,8 +5535,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>"coin,"&amp;F2&amp;";"&amp;$B$20&amp;","&amp;J2&amp;IF(K2&gt;0,";pack,"&amp;O2,"")&amp;IF(N2&gt;0,";pack,"&amp;Q2,"")</f>
-        <v>coin,400;prop,546,1</v>
+        <f>$B$20&amp;","&amp;J2&amp;IF(K2&gt;0,";pack,"&amp;O2,"")&amp;IF(N2&gt;0,";pack,"&amp;Q2,"")</f>
+        <v>prop,546,1</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D14" si="0">$D$16*E2/$E$16</f>
@@ -5577,8 +5601,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C16" si="1">"coin,"&amp;F3&amp;";"&amp;$B$20&amp;","&amp;J3&amp;IF(K3&gt;0,";pack,"&amp;O3,"")&amp;IF(N3&gt;0,";pack,"&amp;Q3,"")</f>
-        <v>coin,460;prop,546,1;pack,159</v>
+        <f>$B$20&amp;","&amp;J3&amp;IF(K3&gt;0,";pack,"&amp;O3,"")&amp;IF(N3&gt;0,";pack,"&amp;Q3,"")</f>
+        <v>prop,546,1;pack,159</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -5588,14 +5612,14 @@
         <v>0.46</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F16" si="2">D3*10</f>
+        <f t="shared" ref="F3:F16" si="1">D3*10</f>
         <v>460</v>
       </c>
       <c r="G3" s="4">
         <v>20</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H16" si="3">D3-G3</f>
+        <f t="shared" ref="H3:H16" si="2">D3-G3</f>
         <v>26</v>
       </c>
       <c r="I3" s="4">
@@ -5609,29 +5633,29 @@
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L16" si="4">(J3+K3)*$C$20</f>
+        <f t="shared" ref="L3:L16" si="3">(J3+K3)*$C$20</f>
         <v>20</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M16" si="5">H3-L3</f>
+        <f t="shared" ref="M3:M16" si="4">H3-L3</f>
         <v>6</v>
       </c>
       <c r="N3" s="4">
-        <f t="shared" ref="N3:N16" si="6">M3/$C$21</f>
+        <f t="shared" ref="N3:N16" si="5">M3/$C$21</f>
         <v>0.12</v>
       </c>
       <c r="O3" s="1">
         <v>144</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P16" si="7">$B$20&amp;"|"&amp;K3*10000&amp;";0|"&amp;(10000-K3*10000)</f>
+        <f t="shared" ref="P3:P16" si="6">$B$20&amp;"|"&amp;K3*10000&amp;";0|"&amp;(10000-K3*10000)</f>
         <v>prop,546|0;0|10000</v>
       </c>
       <c r="Q3" s="1">
         <v>159</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3:R16" si="8">$B$21&amp;"|"&amp;N3*10000&amp;";0|"&amp;(10000-N3*10000)</f>
+        <f t="shared" ref="R3:R16" si="7">$B$21&amp;"|"&amp;N3*10000&amp;";0|"&amp;(10000-N3*10000)</f>
         <v>pack,173|1200;0|8800</v>
       </c>
     </row>
@@ -5643,8 +5667,8 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,520;prop,546,1;pack,145;pack,160</v>
+        <f t="shared" ref="C4:C16" si="8">$B$20&amp;","&amp;J4&amp;IF(K4&gt;0,";pack,"&amp;O4,"")&amp;IF(N4&gt;0,";pack,"&amp;Q4,"")</f>
+        <v>prop,546,1;pack,145;pack,160</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -5654,14 +5678,14 @@
         <v>0.52</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="G4" s="4">
         <v>20</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I4" s="4">
@@ -5675,29 +5699,29 @@
         <v>0.2</v>
       </c>
       <c r="L4" s="4">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="M4" s="4">
+        <v>8</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="6"/>
         <v>0.16</v>
       </c>
       <c r="O4" s="1">
         <v>145</v>
       </c>
       <c r="P4" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|2000;0|8000</v>
       </c>
       <c r="Q4" s="1">
         <v>160</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|1600;0|8400</v>
       </c>
     </row>
@@ -5709,8 +5733,8 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,570;prop,546,1;pack,146;pack,161</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,1;pack,146;pack,161</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -5720,14 +5744,14 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>569.99999999999989</v>
       </c>
       <c r="G5" s="4">
         <v>20</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36.999999999999993</v>
       </c>
       <c r="I5" s="4">
@@ -5741,29 +5765,29 @@
         <v>0.3</v>
       </c>
       <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M5" s="4">
+        <v>10.999999999999993</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="5"/>
-        <v>10.999999999999993</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="6"/>
         <v>0.21999999999999986</v>
       </c>
       <c r="O5" s="1">
         <v>146</v>
       </c>
       <c r="P5" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|3000;0|7000</v>
       </c>
       <c r="Q5" s="1">
         <v>161</v>
       </c>
       <c r="R5" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|2200;0|7800</v>
       </c>
     </row>
@@ -5775,8 +5799,8 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,620;prop,546,1;pack,147;pack,162</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,1;pack,147;pack,162</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -5786,14 +5810,14 @@
         <v>0.62</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>620</v>
       </c>
       <c r="G6" s="4">
         <v>20</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="I6" s="4">
@@ -5807,29 +5831,29 @@
         <v>0.4</v>
       </c>
       <c r="L6" s="4">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="M6" s="4">
+        <v>14</v>
+      </c>
+      <c r="N6" s="4">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="6"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="O6" s="1">
         <v>147</v>
       </c>
       <c r="P6" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|4000;0|6000</v>
       </c>
       <c r="Q6" s="1">
         <v>162</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|2800;0|7200</v>
       </c>
     </row>
@@ -5841,8 +5865,8 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,670;prop,546,1;pack,148;pack,163</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,1;pack,148;pack,163</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
@@ -5852,14 +5876,14 @@
         <v>0.67</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>670</v>
       </c>
       <c r="G7" s="4">
         <v>20</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="I7" s="4">
@@ -5873,29 +5897,29 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M7" s="4">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="6"/>
         <v>0.34</v>
       </c>
       <c r="O7" s="1">
         <v>148</v>
       </c>
       <c r="P7" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|5000;0|5000</v>
       </c>
       <c r="Q7" s="1">
         <v>163</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|3400;0|6600</v>
       </c>
     </row>
@@ -5907,8 +5931,8 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,720;prop,546,1;pack,149;pack,164</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,1;pack,149;pack,164</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -5918,14 +5942,14 @@
         <v>0.72</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="G8" s="4">
         <v>20</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="I8" s="4">
@@ -5939,29 +5963,29 @@
         <v>0.6</v>
       </c>
       <c r="L8" s="4">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="M8" s="4">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="O8" s="1">
         <v>149</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|6000;0|4000</v>
       </c>
       <c r="Q8" s="1">
         <v>164</v>
       </c>
       <c r="R8" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4000;0|6000</v>
       </c>
     </row>
@@ -5973,8 +5997,8 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,770;prop,546,1;pack,150;pack,165</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,1;pack,150;pack,165</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -5984,14 +6008,14 @@
         <v>0.77</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="G9" s="4">
         <v>20</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="I9" s="4">
@@ -6005,29 +6029,29 @@
         <v>0.75</v>
       </c>
       <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M9" s="4">
+        <v>22</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="O9" s="1">
         <v>150</v>
       </c>
       <c r="P9" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|7500;0|2500</v>
       </c>
       <c r="Q9" s="1">
         <v>165</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4400;0|5600</v>
       </c>
     </row>
@@ -6039,8 +6063,8 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,820;prop,546,2;pack,166</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,166</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -6050,14 +6074,14 @@
         <v>0.82</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>820</v>
       </c>
       <c r="G10" s="4">
         <v>20</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="I10" s="4">
@@ -6071,29 +6095,29 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="M10" s="4">
+        <v>22</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="O10" s="1">
         <v>151</v>
       </c>
       <c r="P10" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|0;0|10000</v>
       </c>
       <c r="Q10" s="1">
         <v>166</v>
       </c>
       <c r="R10" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W10" s="1">
@@ -6113,8 +6137,8 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,860;prop,546,2;pack,152;pack,167</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,152;pack,167</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -6124,14 +6148,14 @@
         <v>0.86</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="G11" s="4">
         <v>20</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="I11" s="4">
@@ -6145,29 +6169,29 @@
         <v>0.2</v>
       </c>
       <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="M11" s="4">
+        <v>22</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="O11" s="1">
         <v>152</v>
       </c>
       <c r="P11" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|2000;0|8000</v>
       </c>
       <c r="Q11" s="1">
         <v>167</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W11" s="1">
@@ -6187,8 +6211,8 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,900;prop,546,2;pack,153;pack,168</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,153;pack,168</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -6198,14 +6222,14 @@
         <v>0.9</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="G12" s="4">
         <v>20</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="I12" s="4">
@@ -6219,29 +6243,29 @@
         <v>0.4</v>
       </c>
       <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="M12" s="4">
+        <v>22</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="O12" s="1">
         <v>153</v>
       </c>
       <c r="P12" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|4000;0|6000</v>
       </c>
       <c r="Q12" s="1">
         <v>168</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4400;0|5600</v>
       </c>
       <c r="W12" s="1">
@@ -6261,8 +6285,8 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,930;prop,546,2;pack,154;pack,169</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,154;pack,169</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -6272,14 +6296,14 @@
         <v>0.93</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>930</v>
       </c>
       <c r="G13" s="4">
         <v>20</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="I13" s="4">
@@ -6293,29 +6317,29 @@
         <v>0.5</v>
       </c>
       <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="M13" s="4">
+        <v>23</v>
+      </c>
+      <c r="N13" s="4">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="6"/>
         <v>0.46</v>
       </c>
       <c r="O13" s="1">
         <v>154</v>
       </c>
       <c r="P13" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|5000;0|5000</v>
       </c>
       <c r="Q13" s="1">
         <v>169</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4600;0|5400</v>
       </c>
     </row>
@@ -6327,8 +6351,8 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,960;prop,546,2;pack,155;pack,170</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,155;pack,170</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -6338,14 +6362,14 @@
         <v>0.96</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>960</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="I14" s="4">
@@ -6359,29 +6383,29 @@
         <v>0.6</v>
       </c>
       <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="M14" s="4">
+        <v>24</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="O14" s="1">
         <v>155</v>
       </c>
       <c r="P14" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|6000;0|4000</v>
       </c>
       <c r="Q14" s="1">
         <v>170</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4800;0|5200</v>
       </c>
     </row>
@@ -6393,8 +6417,8 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,980;prop,546,2;pack,156;pack,171</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,156;pack,171</v>
       </c>
       <c r="D15" s="4">
         <f>$D$16*E15/$E$16</f>
@@ -6404,14 +6428,14 @@
         <v>0.98</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>980</v>
       </c>
       <c r="G15" s="4">
         <v>20</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="I15" s="4">
@@ -6425,29 +6449,29 @@
         <v>0.7</v>
       </c>
       <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="M15" s="4">
+        <v>24</v>
+      </c>
+      <c r="N15" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="O15" s="1">
         <v>156</v>
       </c>
       <c r="P15" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|7000;0|3000</v>
       </c>
       <c r="Q15" s="1">
         <v>171</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4800;0|5200</v>
       </c>
     </row>
@@ -6459,8 +6483,8 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>coin,1000;prop,546,2;pack,157;pack,172</v>
+        <f t="shared" si="8"/>
+        <v>prop,546,2;pack,157;pack,172</v>
       </c>
       <c r="D16" s="4">
         <f>活动地图!A26</f>
@@ -6470,14 +6494,14 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="G16" s="4">
         <v>20</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="I16" s="4">
@@ -6491,29 +6515,29 @@
         <v>0.8</v>
       </c>
       <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="M16" s="4">
+        <v>24</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="O16" s="1">
         <v>157</v>
       </c>
       <c r="P16" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>prop,546|8000;0|2000</v>
       </c>
       <c r="Q16" s="1">
         <v>172</v>
       </c>
       <c r="R16" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>pack,173|4800;0|5200</v>
       </c>
     </row>
@@ -6635,6 +6659,11 @@
       <c r="I22" s="11">
         <f>H22/$I$18</f>
         <v>23.866666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.15">
